--- a/travel studies/2017/summary/transit_simple.xlsx
+++ b/travel studies/2017/summary/transit_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travel-studies\2017\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B1401D-C7A7-4E99-83B8-F80F4E2EF0EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72123A-3DE3-4317-AD26-A99B8DC36BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{490B6505-F295-410B-BB32-FA010CF245F4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Primary Mode</t>
   </si>
@@ -137,22 +137,19 @@
     <t>Other mode (e.g., skateboard, kayak, motorhome, etc.)</t>
   </si>
   <si>
-    <t>Walk or Bike</t>
-  </si>
-  <si>
     <t>Drive</t>
   </si>
   <si>
-    <t>CarShare</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
     <t>Transit</t>
   </si>
   <si>
-    <t>Rideshare</t>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Walk</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +660,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +740,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +764,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +788,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +796,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/travel studies/2017/summary/transit_simple.xlsx
+++ b/travel studies/2017/summary/transit_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travel-studies\2017\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72123A-3DE3-4317-AD26-A99B8DC36BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D4576-61AF-43A5-B48E-7CEDE9A63111}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{490B6505-F295-410B-BB32-FA010CF245F4}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
